--- a/upload/template.xlsx
+++ b/upload/template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>Template Upload Jadwal</t>
   </si>
@@ -63,13 +63,34 @@
     <t>Keterangan</t>
   </si>
   <si>
+    <t>KANTOR</t>
+  </si>
+  <si>
     <t>Kantor</t>
   </si>
   <si>
-    <t>Mesh</t>
-  </si>
-  <si>
-    <t>test template</t>
+    <t>AUDITORIUM</t>
+  </si>
+  <si>
+    <t>Auditorium</t>
+  </si>
+  <si>
+    <t>MESS 1</t>
+  </si>
+  <si>
+    <t>Mess 1</t>
+  </si>
+  <si>
+    <t>MESS 2</t>
+  </si>
+  <si>
+    <t>MESS 3</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN</t>
+  </si>
+  <si>
+    <t>RUMAH KALAN</t>
   </si>
   <si>
     <t>Master Ruangan</t>
@@ -78,16 +99,22 @@
     <t>Kode Ruangan</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>POS JAGA SATPAM KANTOR</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
     <t>RUANG ARSIP SDM DAN HUMAS</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>POS JAGA SATPAM KANTORx</t>
+    <t>003</t>
+  </si>
+  <si>
+    <t>RUANG LOBBY LANTAI 1</t>
   </si>
   <si>
     <t>004</t>
@@ -258,18 +285,252 @@
     <t>RUMAH KEPALA PERWAKILAN</t>
   </si>
   <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 70 NO. B1</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 70 NO. B2</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 70 NO. B3</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C7</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C6</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C1</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C2</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C3</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C4</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C5</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>Mess D1</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Mess D2</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>Mess D3</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>Mess D4</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>Mess D5</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>RUANG PANEL LISTRIK MESS</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>Mess D6</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>Mess D7</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>Mess D8</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>Mess D9</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>RUANG DAPUR MESS 1</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>Mess D10</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>Mess D11</t>
+  </si>
+  <si>
     <t>067</t>
   </si>
   <si>
     <t>RUANG KONFERENSI PERS</t>
   </si>
   <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>AUDITORIUM </t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>RUANG GENSET MESS</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>POS JAGA SATPAM RUMAH KALAN</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>RUMAH JABATAN TIPE 50 NO. C8</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>Mess E1</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>Mess E2</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>Mess E3</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>Mess E4</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>Mess E5</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>Mess E6</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>Mess E7</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>Mess E8</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>Mess E9</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>Mess E11</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>Mess E10</t>
+  </si>
+  <si>
     <t>084</t>
   </si>
   <si>
     <t>RUANG LORONG LANTAI 1</t>
   </si>
   <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>DAPUR MESS II</t>
+  </si>
+  <si>
     <t>090</t>
   </si>
   <si>
@@ -279,6 +540,54 @@
     <t>RUANG MEDIA CENTER</t>
   </si>
   <si>
+    <t>POS JAGA MESS I</t>
+  </si>
+  <si>
+    <t>Mess F1</t>
+  </si>
+  <si>
+    <t>Mess F2</t>
+  </si>
+  <si>
+    <t>Mess F3</t>
+  </si>
+  <si>
+    <t>Mess F4</t>
+  </si>
+  <si>
+    <t>Mess F5</t>
+  </si>
+  <si>
+    <t>Mess F6</t>
+  </si>
+  <si>
+    <t>Mess F7</t>
+  </si>
+  <si>
+    <t>Mess F8</t>
+  </si>
+  <si>
+    <t>Mess F9</t>
+  </si>
+  <si>
+    <t>Mess F10</t>
+  </si>
+  <si>
+    <t>Mess F11</t>
+  </si>
+  <si>
+    <t>Mess F12</t>
+  </si>
+  <si>
+    <t>Mess F13</t>
+  </si>
+  <si>
+    <t>POS JAGA MESS III</t>
+  </si>
+  <si>
+    <t>DAPUR MESS III</t>
+  </si>
+  <si>
     <t>MUSHOLLA LANTAI 3</t>
   </si>
   <si>
@@ -291,295 +600,106 @@
     <t>RUANG DRIVER</t>
   </si>
   <si>
-    <t>qweq</t>
-  </si>
-  <si>
-    <t>qweqwew</t>
-  </si>
-  <si>
-    <t>eeww</t>
-  </si>
-  <si>
-    <t>M001</t>
-  </si>
-  <si>
-    <t>Gerbang Atas</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>Mess E1</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>Mess E2</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>Mess E3</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>Mess E4</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>Mess E5</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>Mess E6</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>Mess E7</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>Mess E8</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>Mess E9</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>Mess E11</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>Mess E10</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>DAPUR MESS II</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 70 NO. B1</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 70 NO. B2</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 70 NO. B3</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C7</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C6</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C1</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C2</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C3</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C4</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C5</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>Mess D1</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>Mess D2</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>Mess D3</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>Mess D4</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>Mess D5</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>RUANG PANEL LISTRIK MESS</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>Mess D6</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>Mess D7</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>Mess D8</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>Mess D9</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>RUANG DAPUR MESS 1</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>Mess D10</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>Mess D11</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>AUDITORIUM </t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>RUANG GENSET MESS</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>RUMAH JABATAN TIPE 50 NO. C8</t>
-  </si>
-  <si>
-    <t>POS JAGA MESS I</t>
-  </si>
-  <si>
-    <t>Mess F1</t>
-  </si>
-  <si>
-    <t>Mess F2</t>
-  </si>
-  <si>
-    <t>Mess F3</t>
-  </si>
-  <si>
-    <t>Mess F4</t>
-  </si>
-  <si>
-    <t>Mess F5</t>
-  </si>
-  <si>
-    <t>Mess F6</t>
-  </si>
-  <si>
-    <t>Mess F7</t>
-  </si>
-  <si>
-    <t>Mess F8</t>
-  </si>
-  <si>
-    <t>Mess F9</t>
-  </si>
-  <si>
-    <t>Mess F10</t>
-  </si>
-  <si>
-    <t>Mess F11</t>
-  </si>
-  <si>
-    <t>Mess F12</t>
-  </si>
-  <si>
-    <t>Mess F13</t>
-  </si>
-  <si>
-    <t>POS JAGA MESS III</t>
-  </si>
-  <si>
-    <t>DAPUR MESS III</t>
+    <t>Gerbang Depan</t>
+  </si>
+  <si>
+    <t>Halaman samping</t>
+  </si>
+  <si>
+    <t>Kantor I</t>
+  </si>
+  <si>
+    <t>Kantor II</t>
+  </si>
+  <si>
+    <t>Koridor Lt.1</t>
+  </si>
+  <si>
+    <t>koridor Lt.1 dekat mesin absen</t>
+  </si>
+  <si>
+    <t>Koridor Lt.1 depan lift</t>
+  </si>
+  <si>
+    <t>Koridor Lt.1 depan mushola</t>
+  </si>
+  <si>
+    <t>Koridor Lt.1 depan perpusatkaan</t>
+  </si>
+  <si>
+    <t>Koridor Lt.1 depan ruang driver</t>
+  </si>
+  <si>
+    <t>Koridor Lt.1 depan subbag umum</t>
+  </si>
+  <si>
+    <t>Koridor Lt.2</t>
+  </si>
+  <si>
+    <t>Koridor Lt.2 Depan subbag keuangan</t>
+  </si>
+  <si>
+    <t>Lobby belakang depan VIP</t>
+  </si>
+  <si>
+    <t>Lobby belakang Lt.2</t>
+  </si>
+  <si>
+    <t>Lobby depan Lt.2</t>
+  </si>
+  <si>
+    <t>Lobby depan Lt.2 depan lift</t>
+  </si>
+  <si>
+    <t>Lobby depan Lt.2 depan ruang rapat</t>
+  </si>
+  <si>
+    <t>lobby Lt.1</t>
+  </si>
+  <si>
+    <t>Lt.3 belakang</t>
+  </si>
+  <si>
+    <t>Lt.3 depan</t>
+  </si>
+  <si>
+    <t>Pos satpam 03</t>
+  </si>
+  <si>
+    <t>Pos Satpam 04</t>
+  </si>
+  <si>
+    <t>Pos satpam 05</t>
+  </si>
+  <si>
+    <t>Recepcionist</t>
+  </si>
+  <si>
+    <t>Ruang gudang SDM</t>
+  </si>
+  <si>
+    <t>Ruang kasubbag umum</t>
+  </si>
+  <si>
+    <t>Ruang Lift</t>
+  </si>
+  <si>
+    <t>Ruang Panel Lt. 2</t>
+  </si>
+  <si>
+    <t>Ruang Panel Lt. 3</t>
+  </si>
+  <si>
+    <t>Ruang Staff PB 1</t>
+  </si>
+  <si>
+    <t>Parkiran Mobil</t>
+  </si>
+  <si>
+    <t>Auditorium Lt. 1</t>
+  </si>
+  <si>
+    <t>Auditorium Lt. 2</t>
   </si>
   <si>
     <t>Master Item</t>
@@ -591,31 +711,244 @@
     <t>Tipe Item</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Daikinx</t>
-  </si>
-  <si>
-    <t>IPX1564</t>
-  </si>
-  <si>
-    <t>Mesin Air</t>
-  </si>
-  <si>
-    <t>Simisu</t>
-  </si>
-  <si>
-    <t>as5548</t>
+    <t>APAR</t>
+  </si>
+  <si>
+    <t>YAMATO</t>
+  </si>
+  <si>
+    <t>3.5 KG</t>
+  </si>
+  <si>
+    <t>VIKING</t>
+  </si>
+  <si>
+    <t>6 KG</t>
+  </si>
+  <si>
+    <t>TRANSFER KANTOR 1</t>
+  </si>
+  <si>
+    <t>SHIMIZU</t>
+  </si>
+  <si>
+    <t>TRANSFER KANTOR 2</t>
+  </si>
+  <si>
+    <t>TRANSFER MESS 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TRANSFER MESS 2</t>
+  </si>
+  <si>
+    <t>TRANSFER MESS 3</t>
+  </si>
+  <si>
+    <t>TRANSFER RUMAH KALAN</t>
+  </si>
+  <si>
+    <t>TRANSFER RUMAH DINAS</t>
+  </si>
+  <si>
+    <t>JOCKEY PUMP</t>
+  </si>
+  <si>
+    <t>FIRE PUMP</t>
+  </si>
+  <si>
+    <t>PENDORONG R. KALAN</t>
+  </si>
+  <si>
+    <t>PENDORONG RUMDIN</t>
+  </si>
+  <si>
+    <t>PENDORONG MESS 2</t>
+  </si>
+  <si>
+    <t>PENDORONG MESS 3</t>
+  </si>
+  <si>
+    <t>SUBMERSIBLE KANTOR</t>
+  </si>
+  <si>
+    <t>SUBMERSIBLE MESS</t>
+  </si>
+  <si>
+    <t>PANEL LVMMDP</t>
+  </si>
+  <si>
+    <t>PANEL MDP</t>
+  </si>
+  <si>
+    <t>PANEL PP 1</t>
+  </si>
+  <si>
+    <t>PANEL AC 1</t>
+  </si>
+  <si>
+    <t>PANEL PP 2</t>
+  </si>
+  <si>
+    <t>PANEL AC 2</t>
+  </si>
+  <si>
+    <t>PANEL PP 3</t>
+  </si>
+  <si>
+    <t>PANEL AC 3</t>
+  </si>
+  <si>
+    <t>PANEL LIFT</t>
+  </si>
+  <si>
+    <t>PANEL PENERANGAN 1</t>
+  </si>
+  <si>
+    <t>PANEL PENERANGAN 2</t>
+  </si>
+  <si>
+    <t>Panel SDP Auditorium</t>
+  </si>
+  <si>
+    <t>Panel AC auditorium Lt.2</t>
+  </si>
+  <si>
+    <t>Panel AC Auditorium lt.1</t>
+  </si>
+  <si>
+    <t>Panel PP  Auditorium</t>
+  </si>
+  <si>
+    <t>Panel PP Mess III</t>
+  </si>
+  <si>
+    <t>PABX module</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>Panel LSA</t>
+  </si>
+  <si>
+    <t>PESAWAT TELEPON</t>
+  </si>
+  <si>
+    <t>SAHITE JID</t>
+  </si>
+  <si>
+    <t>Intercom komunikasi lift</t>
+  </si>
+  <si>
+    <t>Motor penggerak</t>
+  </si>
+  <si>
+    <t>Panel kontrol Lift</t>
+  </si>
+  <si>
+    <t>Panel power Lift</t>
+  </si>
+  <si>
+    <t>Penerangan Kabin Lift</t>
+  </si>
+  <si>
+    <t>Pintu Lift</t>
+  </si>
+  <si>
+    <t>Ruang Kabin Lift</t>
+  </si>
+  <si>
+    <t>Ruang luncur</t>
+  </si>
+  <si>
+    <t>Stabilizer tegangan</t>
+  </si>
+  <si>
+    <t>Tali baja</t>
+  </si>
+  <si>
+    <t>Tombol emergency</t>
+  </si>
+  <si>
+    <t>Tombol operasi</t>
+  </si>
+  <si>
+    <t>Smoke detector</t>
+  </si>
+  <si>
+    <t>Bell alarm</t>
+  </si>
+  <si>
+    <t>Emergency lamp signal</t>
+  </si>
+  <si>
+    <t>Emergency button</t>
+  </si>
+  <si>
+    <t>Heat detector</t>
   </si>
   <si>
     <t>CCTV</t>
   </si>
   <si>
-    <t>elang</t>
-  </si>
-  <si>
-    <t>X23443</t>
+    <t>DVR</t>
+  </si>
+  <si>
+    <t>Layar Monitor CCTV</t>
+  </si>
+  <si>
+    <t>Keran Air</t>
+  </si>
+  <si>
+    <t>Onda</t>
+  </si>
+  <si>
+    <t>PANEL SERVER</t>
+  </si>
+  <si>
+    <t>Instalasi Listrik</t>
+  </si>
+  <si>
+    <t>Instalasi Air Kotor</t>
+  </si>
+  <si>
+    <t>Instalasi Air Bersih</t>
+  </si>
+  <si>
+    <t>Pintu</t>
+  </si>
+  <si>
+    <t>Kaca</t>
+  </si>
+  <si>
+    <t>Dinding</t>
+  </si>
+  <si>
+    <t>Plafon</t>
+  </si>
+  <si>
+    <t>Atap</t>
+  </si>
+  <si>
+    <t>Lampu</t>
+  </si>
+  <si>
+    <t>Saklar</t>
+  </si>
+  <si>
+    <t>Shower</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>Westafel</t>
+  </si>
+  <si>
+    <t>Exhaust Fan</t>
   </si>
   <si>
     <t>Master Pekerjaan Rutin</t>
@@ -624,19 +957,52 @@
     <t>Uraian Pekerjaan</t>
   </si>
   <si>
-    <t>Bersihkan AC</t>
-  </si>
-  <si>
-    <t>Ganti Kompresor</t>
-  </si>
-  <si>
-    <t>Cek DVR</t>
-  </si>
-  <si>
-    <t>Cek Kamera</t>
-  </si>
-  <si>
-    <t>Ganti Freon</t>
+    <t>Pengukuran Tegangan (F - N), Amper dan Suhu</t>
+  </si>
+  <si>
+    <t>Mengukur Pengukuran Tegangan (F - N), Amper dan Suhu</t>
+  </si>
+  <si>
+    <t>Cek Dan Cleaning</t>
+  </si>
+  <si>
+    <t>Melakukan Cek Dan Cleaning</t>
+  </si>
+  <si>
+    <t>Pengukuran Tegangan (F - N), Amper dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Melakukan Pengukuran Tegangan (F - N), Amper dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Pengecekan volume dan tanggal kadaluarsa</t>
+  </si>
+  <si>
+    <t>Melakukan Pengecekan volume dan tanggal kadaluarsa</t>
+  </si>
+  <si>
+    <t>Pengecekan dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Melakukan Pengecekan dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Pengukuran tegangan dan arus listrik, serta pembersihan</t>
+  </si>
+  <si>
+    <t>Melakukan Pengukuran tegangan dan arus listrik, serta pembersihan</t>
+  </si>
+  <si>
+    <t>Cek, test dan cleaning</t>
+  </si>
+  <si>
+    <t>Melakukan Cek, test dan cleaning</t>
+  </si>
+  <si>
+    <t>Pengecekan Oli, Solar, Tegangan Aki dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Melakukan Pengecekan Oli, Solar, Tegangan Aki dan Pembersihan</t>
   </si>
 </sst>
 </file>
@@ -832,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="50"/>
@@ -859,31 +1225,55 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>231321</v>
-      </c>
-      <c r="B6">
-        <v>21321</v>
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D131"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="20"/>
@@ -902,7 +1292,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -913,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="7">
         <v>11</v>
@@ -927,13 +1317,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -941,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -955,13 +1345,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -969,13 +1359,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -983,13 +1373,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -997,13 +1387,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1011,13 +1401,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1025,13 +1415,13 @@
         <v>16</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -1039,13 +1429,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1053,13 +1443,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1067,13 +1457,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -1081,13 +1471,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1095,13 +1485,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1109,13 +1499,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -1123,13 +1513,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1137,13 +1527,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1151,13 +1541,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1165,13 +1555,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1179,13 +1569,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1193,13 +1583,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -1207,13 +1597,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
@@ -1221,13 +1611,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -1235,13 +1625,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -1249,13 +1639,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1263,13 +1653,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -1277,13 +1667,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -1291,13 +1681,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -1305,13 +1695,13 @@
         <v>16</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -1319,13 +1709,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -1333,13 +1723,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -1347,811 +1737,1371 @@
         <v>16</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s" s="9">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>159</v>
+        <v>24</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39">
-        <v>160</v>
+        <v>24</v>
+      </c>
+      <c r="B39" t="s" s="9">
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40">
-        <v>161</v>
+        <v>24</v>
+      </c>
+      <c r="B40" t="s" s="9">
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41">
-        <v>162</v>
+        <v>24</v>
+      </c>
+      <c r="B41" t="s" s="9">
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="B42" t="s" s="9">
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s" s="9">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s" s="9">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s" s="9">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s" s="9">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s" s="9">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s" s="9">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56"/>
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
       <c r="B56" t="s" s="9">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57"/>
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
       <c r="B57" t="s" s="9">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s" s="9">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s" s="9">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s" s="9">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s" s="9">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s" s="9">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>152</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s" s="9">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s" s="9">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s" s="9">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s" s="9">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s" s="9">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77">
         <v>123</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78">
         <v>124</v>
       </c>
-      <c r="D57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58"/>
-      <c r="B58" t="s" s="9">
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79">
         <v>125</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80">
         <v>126</v>
       </c>
-      <c r="D58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59"/>
-      <c r="B59" t="s" s="9">
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81">
         <v>127</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C81" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82">
         <v>128</v>
       </c>
-      <c r="D59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60"/>
-      <c r="B60" t="s" s="9">
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83">
         <v>129</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84">
         <v>130</v>
       </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61"/>
-      <c r="B61" t="s" s="9">
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85">
         <v>131</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C85" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86">
         <v>132</v>
       </c>
-      <c r="D61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62"/>
-      <c r="B62" t="s" s="9">
+      <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87">
         <v>133</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88">
         <v>134</v>
       </c>
-      <c r="D62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63"/>
-      <c r="B63" t="s" s="9">
+      <c r="C88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89">
         <v>135</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90">
         <v>136</v>
       </c>
-      <c r="D63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64"/>
-      <c r="B64" t="s" s="9">
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91">
         <v>137</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C91" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92">
         <v>138</v>
       </c>
-      <c r="D64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65"/>
-      <c r="B65" t="s" s="9">
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93">
         <v>139</v>
       </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66"/>
-      <c r="B66" t="s" s="9">
-        <v>141</v>
-      </c>
-      <c r="C66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67"/>
-      <c r="B67" t="s" s="9">
-        <v>143</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68"/>
-      <c r="B68" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69"/>
-      <c r="B69" t="s" s="9">
-        <v>147</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70"/>
-      <c r="B70" t="s" s="9">
-        <v>149</v>
-      </c>
-      <c r="C70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71"/>
-      <c r="B71" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="C71" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72"/>
-      <c r="B72" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="C72" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73"/>
-      <c r="B73" t="s" s="9">
-        <v>155</v>
-      </c>
-      <c r="C73" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74"/>
-      <c r="B74" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="C74" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75"/>
-      <c r="B75" t="s" s="9">
+      <c r="C93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94">
         <v>159</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
         <v>160</v>
       </c>
-      <c r="D75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76"/>
-      <c r="B76" t="s" s="9">
+      <c r="C95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96">
         <v>161</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C96" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
         <v>162</v>
       </c>
-      <c r="D76" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77"/>
-      <c r="B77" t="s" s="9">
-        <v>163</v>
-      </c>
-      <c r="C77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78"/>
-      <c r="B78" t="s" s="9">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79"/>
-      <c r="B79" t="s" s="9">
-        <v>167</v>
-      </c>
-      <c r="C79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80"/>
-      <c r="B80" t="s" s="9">
-        <v>169</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98">
         <v>170</v>
       </c>
-      <c r="D80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81"/>
-      <c r="B81" t="s" s="9">
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
         <v>171</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100">
         <v>172</v>
       </c>
-      <c r="D81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82"/>
-      <c r="B82">
-        <v>124</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
         <v>173</v>
       </c>
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83"/>
-      <c r="B83">
-        <v>125</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="C101" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
         <v>174</v>
       </c>
-      <c r="D83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84"/>
-      <c r="B84">
-        <v>126</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
         <v>175</v>
       </c>
-      <c r="D84" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85"/>
-      <c r="B85">
-        <v>127</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104">
         <v>176</v>
       </c>
-      <c r="D85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86"/>
-      <c r="B86">
-        <v>128</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="C104" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105">
         <v>177</v>
       </c>
-      <c r="D86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87"/>
-      <c r="B87">
-        <v>129</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106">
         <v>178</v>
       </c>
-      <c r="D87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88"/>
-      <c r="B88">
-        <v>130</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="C106" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107">
         <v>179</v>
       </c>
-      <c r="D88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89"/>
-      <c r="B89">
-        <v>131</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108">
         <v>180</v>
       </c>
-      <c r="D89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90"/>
-      <c r="B90">
-        <v>132</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109">
         <v>181</v>
       </c>
-      <c r="D90" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91"/>
-      <c r="B91">
-        <v>133</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="C109" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110">
         <v>182</v>
       </c>
-      <c r="D91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92"/>
-      <c r="B92">
-        <v>134</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="C110" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111">
         <v>183</v>
       </c>
-      <c r="D92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93"/>
-      <c r="B93">
-        <v>135</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="C111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112">
         <v>184</v>
       </c>
-      <c r="D93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94"/>
-      <c r="B94">
-        <v>136</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113">
         <v>185</v>
       </c>
-      <c r="D94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95"/>
-      <c r="B95">
-        <v>137</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="C113" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114">
         <v>186</v>
       </c>
-      <c r="D95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96"/>
-      <c r="B96">
-        <v>138</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115">
         <v>187</v>
       </c>
-      <c r="D96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97"/>
-      <c r="B97">
-        <v>139</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116">
         <v>188</v>
       </c>
-      <c r="D97" t="s">
-        <v>188</v>
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>189</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118">
+        <v>190</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119">
+        <v>191</v>
+      </c>
+      <c r="C119" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>192</v>
+      </c>
+      <c r="C120" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>193</v>
+      </c>
+      <c r="C121" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>194</v>
+      </c>
+      <c r="C122" t="s">
+        <v>219</v>
+      </c>
+      <c r="D122" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123">
+        <v>195</v>
+      </c>
+      <c r="C123" t="s">
+        <v>220</v>
+      </c>
+      <c r="D123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124">
+        <v>196</v>
+      </c>
+      <c r="C124" t="s">
+        <v>221</v>
+      </c>
+      <c r="D124" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125">
+        <v>197</v>
+      </c>
+      <c r="C125" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>198</v>
+      </c>
+      <c r="C126" t="s">
+        <v>223</v>
+      </c>
+      <c r="D126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127">
+        <v>199</v>
+      </c>
+      <c r="C127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D127" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128">
+        <v>200</v>
+      </c>
+      <c r="C128" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>201</v>
+      </c>
+      <c r="C129" t="s">
+        <v>226</v>
+      </c>
+      <c r="D129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130">
+        <v>202</v>
+      </c>
+      <c r="C130" t="s">
+        <v>227</v>
+      </c>
+      <c r="D130" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131">
+        <v>203</v>
+      </c>
+      <c r="C131" t="s">
+        <v>228</v>
+      </c>
+      <c r="D131" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +3110,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C76"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="35"/>
@@ -2169,7 +3119,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
@@ -2180,43 +3130,813 @@
         <v>12</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C16" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C18" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C20" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C27" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C38" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C42" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C43" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B44" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C44" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C45" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C46" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C47" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>282</v>
+      </c>
+      <c r="B48" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C48" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C50" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C52" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C53" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C54" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C55" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C56" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C59" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C63" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C64" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C65" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C66" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C67" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C68" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>304</v>
+      </c>
+      <c r="B69" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C69" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C71" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C72" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>308</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +3945,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="50"/>
@@ -2233,7 +3953,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>201</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
@@ -2244,47 +3964,71 @@
         <v>13</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>202</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template.xlsx
+++ b/upload/template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Template Upload Jadwal</t>
   </si>
@@ -711,298 +711,10 @@
     <t>Tipe Item</t>
   </si>
   <si>
-    <t>APAR</t>
-  </si>
-  <si>
-    <t>YAMATO</t>
-  </si>
-  <si>
-    <t>3.5 KG</t>
-  </si>
-  <si>
-    <t>VIKING</t>
-  </si>
-  <si>
-    <t>6 KG</t>
-  </si>
-  <si>
-    <t>TRANSFER KANTOR 1</t>
-  </si>
-  <si>
-    <t>SHIMIZU</t>
-  </si>
-  <si>
-    <t>TRANSFER KANTOR 2</t>
-  </si>
-  <si>
-    <t>TRANSFER MESS 1</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TRANSFER MESS 2</t>
-  </si>
-  <si>
-    <t>TRANSFER MESS 3</t>
-  </si>
-  <si>
-    <t>TRANSFER RUMAH KALAN</t>
-  </si>
-  <si>
-    <t>TRANSFER RUMAH DINAS</t>
-  </si>
-  <si>
-    <t>JOCKEY PUMP</t>
-  </si>
-  <si>
-    <t>FIRE PUMP</t>
-  </si>
-  <si>
-    <t>PENDORONG R. KALAN</t>
-  </si>
-  <si>
-    <t>PENDORONG RUMDIN</t>
-  </si>
-  <si>
-    <t>PENDORONG MESS 2</t>
-  </si>
-  <si>
-    <t>PENDORONG MESS 3</t>
-  </si>
-  <si>
-    <t>SUBMERSIBLE KANTOR</t>
-  </si>
-  <si>
-    <t>SUBMERSIBLE MESS</t>
-  </si>
-  <si>
-    <t>PANEL LVMMDP</t>
-  </si>
-  <si>
-    <t>PANEL MDP</t>
-  </si>
-  <si>
-    <t>PANEL PP 1</t>
-  </si>
-  <si>
-    <t>PANEL AC 1</t>
-  </si>
-  <si>
-    <t>PANEL PP 2</t>
-  </si>
-  <si>
-    <t>PANEL AC 2</t>
-  </si>
-  <si>
-    <t>PANEL PP 3</t>
-  </si>
-  <si>
-    <t>PANEL AC 3</t>
-  </si>
-  <si>
-    <t>PANEL LIFT</t>
-  </si>
-  <si>
-    <t>PANEL PENERANGAN 1</t>
-  </si>
-  <si>
-    <t>PANEL PENERANGAN 2</t>
-  </si>
-  <si>
-    <t>Panel SDP Auditorium</t>
-  </si>
-  <si>
-    <t>Panel AC auditorium Lt.2</t>
-  </si>
-  <si>
-    <t>Panel AC Auditorium lt.1</t>
-  </si>
-  <si>
-    <t>Panel PP  Auditorium</t>
-  </si>
-  <si>
-    <t>Panel PP Mess III</t>
-  </si>
-  <si>
-    <t>PABX module</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>Panel LSA</t>
-  </si>
-  <si>
-    <t>PESAWAT TELEPON</t>
-  </si>
-  <si>
-    <t>SAHITE JID</t>
-  </si>
-  <si>
-    <t>Intercom komunikasi lift</t>
-  </si>
-  <si>
-    <t>Motor penggerak</t>
-  </si>
-  <si>
-    <t>Panel kontrol Lift</t>
-  </si>
-  <si>
-    <t>Panel power Lift</t>
-  </si>
-  <si>
-    <t>Penerangan Kabin Lift</t>
-  </si>
-  <si>
-    <t>Pintu Lift</t>
-  </si>
-  <si>
-    <t>Ruang Kabin Lift</t>
-  </si>
-  <si>
-    <t>Ruang luncur</t>
-  </si>
-  <si>
-    <t>Stabilizer tegangan</t>
-  </si>
-  <si>
-    <t>Tali baja</t>
-  </si>
-  <si>
-    <t>Tombol emergency</t>
-  </si>
-  <si>
-    <t>Tombol operasi</t>
-  </si>
-  <si>
-    <t>Smoke detector</t>
-  </si>
-  <si>
-    <t>Bell alarm</t>
-  </si>
-  <si>
-    <t>Emergency lamp signal</t>
-  </si>
-  <si>
-    <t>Emergency button</t>
-  </si>
-  <si>
-    <t>Heat detector</t>
-  </si>
-  <si>
-    <t>CCTV</t>
-  </si>
-  <si>
-    <t>DVR</t>
-  </si>
-  <si>
-    <t>Layar Monitor CCTV</t>
-  </si>
-  <si>
-    <t>Keran Air</t>
-  </si>
-  <si>
-    <t>Onda</t>
-  </si>
-  <si>
-    <t>PANEL SERVER</t>
-  </si>
-  <si>
-    <t>Instalasi Listrik</t>
-  </si>
-  <si>
-    <t>Instalasi Air Kotor</t>
-  </si>
-  <si>
-    <t>Instalasi Air Bersih</t>
-  </si>
-  <si>
-    <t>Pintu</t>
-  </si>
-  <si>
-    <t>Kaca</t>
-  </si>
-  <si>
-    <t>Dinding</t>
-  </si>
-  <si>
-    <t>Plafon</t>
-  </si>
-  <si>
-    <t>Atap</t>
-  </si>
-  <si>
-    <t>Lampu</t>
-  </si>
-  <si>
-    <t>Saklar</t>
-  </si>
-  <si>
-    <t>Shower</t>
-  </si>
-  <si>
-    <t>Closet</t>
-  </si>
-  <si>
-    <t>Westafel</t>
-  </si>
-  <si>
-    <t>Exhaust Fan</t>
-  </si>
-  <si>
     <t>Master Pekerjaan Rutin</t>
   </si>
   <si>
     <t>Uraian Pekerjaan</t>
-  </si>
-  <si>
-    <t>Pengukuran Tegangan (F - N), Amper dan Suhu</t>
-  </si>
-  <si>
-    <t>Mengukur Pengukuran Tegangan (F - N), Amper dan Suhu</t>
-  </si>
-  <si>
-    <t>Cek Dan Cleaning</t>
-  </si>
-  <si>
-    <t>Melakukan Cek Dan Cleaning</t>
-  </si>
-  <si>
-    <t>Pengukuran Tegangan (F - N), Amper dan Pembersihan</t>
-  </si>
-  <si>
-    <t>Melakukan Pengukuran Tegangan (F - N), Amper dan Pembersihan</t>
-  </si>
-  <si>
-    <t>Pengecekan volume dan tanggal kadaluarsa</t>
-  </si>
-  <si>
-    <t>Melakukan Pengecekan volume dan tanggal kadaluarsa</t>
-  </si>
-  <si>
-    <t>Pengecekan dan Pembersihan</t>
-  </si>
-  <si>
-    <t>Melakukan Pengecekan dan Pembersihan</t>
-  </si>
-  <si>
-    <t>Pengukuran tegangan dan arus listrik, serta pembersihan</t>
-  </si>
-  <si>
-    <t>Melakukan Pengukuran tegangan dan arus listrik, serta pembersihan</t>
-  </si>
-  <si>
-    <t>Cek, test dan cleaning</t>
-  </si>
-  <si>
-    <t>Melakukan Cek, test dan cleaning</t>
-  </si>
-  <si>
-    <t>Pengecekan Oli, Solar, Tegangan Aki dan Pembersihan</t>
-  </si>
-  <si>
-    <t>Melakukan Pengecekan Oli, Solar, Tegangan Aki dan Pembersihan</t>
   </si>
 </sst>
 </file>
@@ -3110,7 +2822,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C3"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="35"/>
@@ -3136,816 +2848,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>258</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>260</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>263</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>265</v>
-      </c>
-      <c r="B32" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B33" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C33" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>273</v>
-      </c>
-      <c r="B39" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B41" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C41" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>279</v>
-      </c>
-      <c r="B45" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>281</v>
-      </c>
-      <c r="B47" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C47" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B48" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>283</v>
-      </c>
-      <c r="B49" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B50" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C50" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>285</v>
-      </c>
-      <c r="B51" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C51" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>286</v>
-      </c>
-      <c r="B52" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>288</v>
-      </c>
-      <c r="B54" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C54" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B55" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C55" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C57" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>292</v>
-      </c>
-      <c r="B58" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C58" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>293</v>
-      </c>
-      <c r="B59" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C59" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>294</v>
-      </c>
-      <c r="B60" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C60" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B61" t="s">
-        <v>296</v>
-      </c>
-      <c r="C61" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>297</v>
-      </c>
-      <c r="B62" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C62" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>298</v>
-      </c>
-      <c r="B63" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C63" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>299</v>
-      </c>
-      <c r="B64" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C64" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>300</v>
-      </c>
-      <c r="B65" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C65" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>301</v>
-      </c>
-      <c r="B66" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C66" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>302</v>
-      </c>
-      <c r="B67" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C67" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>303</v>
-      </c>
-      <c r="B68" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C68" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>304</v>
-      </c>
-      <c r="B69" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C69" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>305</v>
-      </c>
-      <c r="B70" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>306</v>
-      </c>
-      <c r="B71" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C71" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>307</v>
-      </c>
-      <c r="B72" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C72" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>308</v>
-      </c>
-      <c r="B73" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C74" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>310</v>
-      </c>
-      <c r="B75" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C75" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>311</v>
-      </c>
-      <c r="B76" t="s" s="9">
-        <v>241</v>
-      </c>
-      <c r="C76" t="s" s="9">
-        <v>241</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B3"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="50"/>
@@ -3953,7 +2862,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>312</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
@@ -3964,71 +2873,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template.xlsx
+++ b/upload/template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Template Upload Jadwal</t>
   </si>
@@ -711,10 +711,283 @@
     <t>Tipe Item</t>
   </si>
   <si>
+    <t>APAR 3.5 Kg</t>
+  </si>
+  <si>
+    <t>Yamato</t>
+  </si>
+  <si>
+    <t>3.5 Kg</t>
+  </si>
+  <si>
+    <t>APAR 6 Kg</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
+    <t>6 Kg</t>
+  </si>
+  <si>
+    <t>Bell Alaram</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Avtech</t>
+  </si>
+  <si>
+    <t>16 ch</t>
+  </si>
+  <si>
+    <t>Emergency Button</t>
+  </si>
+  <si>
+    <t>Emergency Lamp Signal</t>
+  </si>
+  <si>
+    <t>Heat Detector</t>
+  </si>
+  <si>
+    <t>PABX Module</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>TDA</t>
+  </si>
+  <si>
+    <t>Panel Listrik PP Mess I . II</t>
+  </si>
+  <si>
+    <t>Panel Listrik PP Mess III</t>
+  </si>
+  <si>
+    <t>Pompa Transfer Kantor I</t>
+  </si>
+  <si>
+    <t>Shimizu</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Smoke Detector</t>
+  </si>
+  <si>
+    <t>Pesawat Telepon</t>
+  </si>
+  <si>
+    <t>KX</t>
+  </si>
+  <si>
+    <t>Pompa Transfer kantor II</t>
+  </si>
+  <si>
+    <t>Pompa Transfer Mess I</t>
+  </si>
+  <si>
+    <t>Pompa Transfer Mess II</t>
+  </si>
+  <si>
+    <t>Pompa Transfer Mess III</t>
+  </si>
+  <si>
+    <t>Pompa Transfer Rumah kalan</t>
+  </si>
+  <si>
+    <t>Pompa Transfer Rumah Dinas</t>
+  </si>
+  <si>
+    <t>Jockey Pump</t>
+  </si>
+  <si>
+    <t>Fire Pump</t>
+  </si>
+  <si>
+    <t>Pompa Pendorong R. kalan</t>
+  </si>
+  <si>
+    <t>Pendorong Rumdin B</t>
+  </si>
+  <si>
+    <t>Pendorong Mess II</t>
+  </si>
+  <si>
+    <t>Pendorong Mess III</t>
+  </si>
+  <si>
+    <t>Submersible Kantor</t>
+  </si>
+  <si>
+    <t>Submersible Mess</t>
+  </si>
+  <si>
+    <t>Panel PP Auditorium</t>
+  </si>
+  <si>
+    <t>Panel AC lt. 1 Auditorium</t>
+  </si>
+  <si>
+    <t>Panel AC Auditorium</t>
+  </si>
+  <si>
+    <t>Panel SDP Auditorium </t>
+  </si>
+  <si>
+    <t>Panel Penerangan 2</t>
+  </si>
+  <si>
+    <t>Panel Penerangan 1</t>
+  </si>
+  <si>
+    <t>Panel Lift</t>
+  </si>
+  <si>
+    <t>Panel AC 3</t>
+  </si>
+  <si>
+    <t>Panel PP 3</t>
+  </si>
+  <si>
+    <t>Panel AC 2</t>
+  </si>
+  <si>
+    <t>Panel PP 2</t>
+  </si>
+  <si>
+    <t>Panel AC 1</t>
+  </si>
+  <si>
+    <t>Panel PP 1</t>
+  </si>
+  <si>
+    <t>Panel MDP</t>
+  </si>
+  <si>
+    <t>Panel LVMMDP</t>
+  </si>
+  <si>
+    <t>Panel LSA</t>
+  </si>
+  <si>
+    <t>Intercom Komunikasi Lift</t>
+  </si>
+  <si>
+    <t>Motor Penggerak</t>
+  </si>
+  <si>
+    <t>Panel Kontrol</t>
+  </si>
+  <si>
+    <t>Panel Power</t>
+  </si>
+  <si>
+    <t>Penerangan Kabin</t>
+  </si>
+  <si>
+    <t>Pintu Lift</t>
+  </si>
+  <si>
+    <t>Ruang Kabin Lift</t>
+  </si>
+  <si>
+    <t>Ruang Luncur</t>
+  </si>
+  <si>
+    <t>Stabilizer Tegangan</t>
+  </si>
+  <si>
+    <t>Tali Baja</t>
+  </si>
+  <si>
+    <t>Tombol Emergency</t>
+  </si>
+  <si>
+    <t>Tombol Operasi</t>
+  </si>
+  <si>
+    <t>Layar Monitor</t>
+  </si>
+  <si>
+    <t>Pintu</t>
+  </si>
+  <si>
+    <t>Lampu Downlight</t>
+  </si>
+  <si>
+    <t>Plafon</t>
+  </si>
+  <si>
+    <t>Saklar</t>
+  </si>
+  <si>
+    <t>Keran</t>
+  </si>
+  <si>
+    <t>Atap</t>
+  </si>
+  <si>
+    <t>Dinding</t>
+  </si>
+  <si>
     <t>Master Pekerjaan Rutin</t>
   </si>
   <si>
     <t>Uraian Pekerjaan</t>
+  </si>
+  <si>
+    <t>Pengecekan Panel Listrik</t>
+  </si>
+  <si>
+    <t>Mengukur Pengukuran Tegangan (F - N), Amper dan Suhu</t>
+  </si>
+  <si>
+    <t>Pengecekan &amp; Pembersihan Fire Alaram</t>
+  </si>
+  <si>
+    <t>Melakukan Cek Dan Cleaning</t>
+  </si>
+  <si>
+    <t>Melakukan Pengukuran dan Pembersihan Pompa Air</t>
+  </si>
+  <si>
+    <t>Melakukan Pengukuran Tegangan (F - N), Amper dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Cek &amp; Periksa Kadaluarsa Tabung Apar</t>
+  </si>
+  <si>
+    <t>Melakukan Pengecekan volume dan tanggal kadaluarsa</t>
+  </si>
+  <si>
+    <t>Pengecekan &amp; Pembersihan CCTV</t>
+  </si>
+  <si>
+    <t>Melakukan Pengecekan dan Pembersihan</t>
+  </si>
+  <si>
+    <t>Melakukan Pengukuran &amp; Pembersihan Lift</t>
+  </si>
+  <si>
+    <t>Melakukan Pengukuran tegangan dan arus listrik, serta pembersihan</t>
+  </si>
+  <si>
+    <t>Cek &amp; Pembersihan PABX</t>
+  </si>
+  <si>
+    <t>Melakukan Cek, test dan cleaning</t>
+  </si>
+  <si>
+    <t>Cek &amp; Pembersihan Genset</t>
+  </si>
+  <si>
+    <t>Melakukan Pengecekan Oli, Solar, Tegangan Aki dan Pembersihan</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +3095,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C66"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="35"/>
@@ -2848,13 +3121,706 @@
         <v>231</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C18" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C27" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C36" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C41" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C42" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C46" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C49" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C50" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C51" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C53" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C54" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C57" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C59" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C60" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s" s="9">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <cols>
     <col min="1" max="1" width="35"/>
     <col min="2" max="2" width="50"/>
@@ -2862,7 +3828,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>232</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
@@ -2873,7 +3839,71 @@
         <v>13</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>233</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/upload/template.xlsx
+++ b/upload/template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>Template Upload Jadwal</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Input data jadwal di bawah</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>Tanggal</t>
@@ -1078,13 +1081,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <cols>
-    <col min="1" max="1" width="20"/>
-    <col min="2" max="2" width="35"/>
-    <col min="3" max="3" width="35"/>
+    <col min="1" max="1" width="30"/>
+    <col min="2" max="2" width="20"/>
+    <col min="3" max="3" width="30"/>
     <col min="4" max="4" width="35"/>
     <col min="5" max="5" width="35"/>
+    <col min="6" max="6" width="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1165,6 +1169,9 @@
       </c>
       <c r="E13" t="s" s="6">
         <v>13</v>
+      </c>
+      <c r="F13" t="s" s="6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1198,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1199,66 +1206,66 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -1285,1808 +1292,1808 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B78">
         <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B80">
         <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B81">
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B83">
         <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B84">
         <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B86">
         <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B87">
         <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B88">
         <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B89">
         <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B90">
         <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B91">
         <v>137</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B92">
         <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B93">
         <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96">
         <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97">
         <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B98">
         <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B100">
         <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B101">
         <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <v>174</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B103">
         <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B104">
         <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B105">
         <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B106">
         <v>178</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B107">
         <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B108">
         <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B109">
         <v>181</v>
       </c>
       <c r="C109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B111">
         <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B112">
         <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B113">
         <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>186</v>
       </c>
       <c r="C114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B115">
         <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B116">
         <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B117">
         <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>191</v>
       </c>
       <c r="C119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B120">
         <v>192</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>193</v>
       </c>
       <c r="C121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B122">
         <v>194</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D122" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <v>195</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B124">
         <v>196</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B125">
         <v>197</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B126">
         <v>198</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B127">
         <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B128">
         <v>200</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B129">
         <v>201</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B130">
         <v>202</v>
       </c>
       <c r="C130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B131">
         <v>203</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3111,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -3112,706 +3119,706 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C18" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C36" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C39" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C51" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B56" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C57" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B58" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C59" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B61" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C61" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B62" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C62" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C65" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3835,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
@@ -3836,74 +3843,74 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
